--- a/ASINs_LowCoverage_Urgent.xlsx
+++ b/ASINs_LowCoverage_Urgent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,28 +518,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W16</t>
+          <t>W17</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>115.7</v>
+        <v>120.9</v>
       </c>
       <c r="D2" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E2" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F2" t="n">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G2" t="n">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.83</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -586,28 +586,28 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W17</t>
+          <t>W18</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>117</v>
+        <v>120.9</v>
       </c>
       <c r="D3" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E3" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F3" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G3" t="n">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1.16</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -654,28 +654,28 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W18</t>
+          <t>W19</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D4" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E4" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F4" t="n">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G4" t="n">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -722,28 +722,28 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W19</t>
+          <t>W20</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>114.4</v>
+        <v>108</v>
       </c>
       <c r="D5" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E5" t="n">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F5" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G5" t="n">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -790,28 +790,28 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W20</t>
+          <t>W21</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>107.9</v>
+        <v>109</v>
       </c>
       <c r="D6" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E6" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F6" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G6" t="n">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>0.89</v>
+        <v>1.17</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -858,28 +858,28 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W21</t>
+          <t>W22</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
+          <t>2025-05-25</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>106.6</v>
+        <v>111</v>
       </c>
       <c r="D7" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E7" t="n">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F7" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G7" t="n">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -926,28 +926,28 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W22</t>
+          <t>W23</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>106.6</v>
+        <v>110</v>
       </c>
       <c r="D8" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E8" t="n">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F8" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G8" t="n">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>1.11</v>
+        <v>0.8</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -994,28 +994,28 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W13</t>
+          <t>W16</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>117</v>
+        <v>85.8</v>
       </c>
       <c r="D9" t="n">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="E9" t="n">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="F9" t="n">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="G9" t="n">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0.22</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.19</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1062,28 +1062,28 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W14</t>
+          <t>W17</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>104</v>
+        <v>79.3</v>
       </c>
       <c r="D10" t="n">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="E10" t="n">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="F10" t="n">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="G10" t="n">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1130,28 +1130,28 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>W15</t>
+          <t>W18</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>106</v>
+        <v>80.60000000000001</v>
       </c>
       <c r="D11" t="n">
+        <v>62</v>
+      </c>
+      <c r="E11" t="n">
+        <v>76</v>
+      </c>
+      <c r="F11" t="n">
         <v>94</v>
       </c>
-      <c r="E11" t="n">
-        <v>113</v>
-      </c>
-      <c r="F11" t="n">
-        <v>136</v>
-      </c>
       <c r="G11" t="n">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>0.87</v>
+        <v>0.96</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1198,28 +1198,28 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>W16</t>
+          <t>W19</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>110.5</v>
+        <v>79.3</v>
       </c>
       <c r="D12" t="n">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="E12" t="n">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="F12" t="n">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="G12" t="n">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>0.82</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1266,28 +1266,28 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>W17</t>
+          <t>W20</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>110.5</v>
+        <v>76.7</v>
       </c>
       <c r="D13" t="n">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="E13" t="n">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="F13" t="n">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="G13" t="n">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1334,28 +1334,28 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>W18</t>
+          <t>W21</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>109.2</v>
+        <v>74.10000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="E14" t="n">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="F14" t="n">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="G14" t="n">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1402,28 +1402,28 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>W19</t>
+          <t>W22</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-25</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>106.6</v>
+        <v>74.10000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="E15" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F15" t="n">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="G15" t="n">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1470,28 +1470,28 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>W20</t>
+          <t>W23</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>98.8</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E16" t="n">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="F16" t="n">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="G16" t="n">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1530,142 +1530,6 @@
         </is>
       </c>
       <c r="P16" t="inlineStr">
-        <is>
-          <t>A520M S2H</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>W21</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2025-05-18</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>84</v>
-      </c>
-      <c r="D17" t="n">
-        <v>79</v>
-      </c>
-      <c r="E17" t="n">
-        <v>96</v>
-      </c>
-      <c r="F17" t="n">
-        <v>118</v>
-      </c>
-      <c r="G17" t="n">
-        <v>152</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Stable</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Urgent</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Increasing (▲)</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>Growth</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>B08F7HPJ4F</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>A520M S2H</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>W22</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2025-05-25</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>66</v>
-      </c>
-      <c r="D18" t="n">
-        <v>78</v>
-      </c>
-      <c r="E18" t="n">
-        <v>95</v>
-      </c>
-      <c r="F18" t="n">
-        <v>117</v>
-      </c>
-      <c r="G18" t="n">
-        <v>152</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Stable</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Urgent</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Increasing (▲)</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>Growth</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>B08F7HPJ4F</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
         <is>
           <t>A520M S2H</t>
         </is>

--- a/ASINs_LowCoverage_Urgent.xlsx
+++ b/ASINs_LowCoverage_Urgent.xlsx
@@ -547,11 +547,11 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>0.99</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>115</v>
+        <v>120.9</v>
       </c>
       <c r="D4" t="n">
         <v>93</v>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D5" t="n">
         <v>90</v>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>0.93</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>109</v>
+        <v>111.8</v>
       </c>
       <c r="D6" t="n">
         <v>86</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>1.17</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>111</v>
+        <v>111.8</v>
       </c>
       <c r="D7" t="n">
         <v>86</v>
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>1.18</v>
+        <v>0.85</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>110</v>
+        <v>110.5</v>
       </c>
       <c r="D8" t="n">
         <v>85</v>
@@ -973,7 +973,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>0.8</v>
+        <v>0.97</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>1.19</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>0.9</v>
+        <v>1.16</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>0.96</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>0.82</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.19</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>0.84</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>0.8</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>0.91</v>
+        <v>0.84</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
